--- a/data/trans_orig/IBSE_100-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IBSE_100-Estudios-trans_orig.xlsx
@@ -563,7 +563,7 @@
         <v>69.49288290028065</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>63.37605934580877</v>
+        <v>63.37605934580878</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>65.90977393659756</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>67.74343928532467</v>
+        <v>67.65735737840917</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>62.13456892041649</v>
+        <v>62.16308135528806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64.92220321828583</v>
+        <v>64.87962863927359</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>71.21286086032804</v>
+        <v>71.32854384428333</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>64.47094531244159</v>
+        <v>64.55130493442698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66.84989639175809</v>
+        <v>66.85745521880762</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>79.27724963941172</v>
+        <v>79.27724963941174</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>76.14854325840162</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>78.389254901624</v>
+        <v>78.44618200036213</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>75.39342156305092</v>
+        <v>75.34335610508133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>77.14138395470383</v>
+        <v>77.20010124246035</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>80.05582648877495</v>
+        <v>80.11690591027599</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>76.89858118359871</v>
+        <v>76.86921918154088</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>78.27004611984161</v>
+        <v>78.26908311666372</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>80.76310928540832</v>
+        <v>80.76310928540831</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>79.07743339307548</v>
+        <v>79.07743339307547</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>79.90658001687231</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>79.19839745622008</v>
+        <v>79.25313742862652</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>77.9435877160478</v>
+        <v>77.9212307940776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78.88759860333892</v>
+        <v>78.97810308357219</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>82.09128778777199</v>
+        <v>82.06663310208818</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>80.08640468176571</v>
+        <v>80.03290440319719</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80.70732629557553</v>
+        <v>80.8048969683276</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>78.00550649632362</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>73.97945487429364</v>
+        <v>73.97945487429365</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>75.93784615555971</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>77.27959177952991</v>
+        <v>77.33474294111045</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>73.40683657409113</v>
+        <v>73.39453110080147</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75.50793323307407</v>
+        <v>75.50752607232602</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.64049166142904</v>
+        <v>78.64224152815763</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>74.53893069323816</v>
+        <v>74.54774644133512</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>76.37921425559939</v>
+        <v>76.45591420393664</v>
       </c>
     </row>
     <row r="16">
